--- a/arquivos/fitoterapicos/maio_2025/Movimetações_Fitoterapicos_250604.xlsx
+++ b/arquivos/fitoterapicos/maio_2025/Movimetações_Fitoterapicos_250604.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Movimentações Fitoterapicos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Movimentações Fitoterapicos'!$A$1:$C$1271</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Movimentações Fitoterapicos'!$A$1:$C$1270</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3742" uniqueCount="2477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3739" uniqueCount="2475">
   <si>
     <t>UF</t>
   </si>
@@ -4933,12 +4933,6 @@
   </si>
   <si>
     <t>430740</t>
-  </si>
-  <si>
-    <t>ESTADO DO RIO GRANDE DO SUL</t>
-  </si>
-  <si>
-    <t>430000</t>
   </si>
   <si>
     <t>FLORES DA CUNHA</t>
@@ -7849,10 +7843,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C1271"/>
+  <dimension ref="A1:C1270"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="140.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7867,10 +7861,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -10342,10 +10336,10 @@
         <v>207</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
@@ -10592,10 +10586,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="C249" s="3">
         <v>530010</v>
@@ -12256,10 +12250,10 @@
         <v>678</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
       <c r="C400" s="5" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
@@ -12564,7 +12558,7 @@
         <v>803</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
       <c r="C428" s="3">
         <v>500320</v>
@@ -12619,7 +12613,7 @@
         <v>858</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
       <c r="C433" s="3">
         <v>310090</v>
@@ -12630,7 +12624,7 @@
         <v>858</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="C434" s="3">
         <v>310163</v>
@@ -12641,7 +12635,7 @@
         <v>858</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
       <c r="C435" s="3">
         <v>310450</v>
@@ -12652,7 +12646,7 @@
         <v>858</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
       <c r="C436" s="3">
         <v>310520</v>
@@ -12663,7 +12657,7 @@
         <v>858</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
       <c r="C437" s="3">
         <v>310530</v>
@@ -12674,7 +12668,7 @@
         <v>858</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
       <c r="C438" s="3">
         <v>310640</v>
@@ -12685,7 +12679,7 @@
         <v>858</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
       <c r="C439" s="3">
         <v>310670</v>
@@ -12696,7 +12690,7 @@
         <v>858</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
       <c r="C440" s="3">
         <v>310720</v>
@@ -12707,7 +12701,7 @@
         <v>858</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
       <c r="C441" s="3">
         <v>310730</v>
@@ -12718,7 +12712,7 @@
         <v>858</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
       <c r="C442" s="3">
         <v>310850</v>
@@ -12729,7 +12723,7 @@
         <v>858</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="C443" s="3">
         <v>310930</v>
@@ -12740,7 +12734,7 @@
         <v>858</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
       <c r="C444" s="3">
         <v>310940</v>
@@ -12751,7 +12745,7 @@
         <v>858</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="C445" s="3">
         <v>310950</v>
@@ -12762,7 +12756,7 @@
         <v>858</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
       <c r="C446" s="3">
         <v>310270</v>
@@ -12773,7 +12767,7 @@
         <v>858</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
       <c r="C447" s="3">
         <v>311320</v>
@@ -12784,7 +12778,7 @@
         <v>858</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
       <c r="C448" s="3">
         <v>311330</v>
@@ -12795,7 +12789,7 @@
         <v>858</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>2425</v>
+        <v>2423</v>
       </c>
       <c r="C449" s="3">
         <v>311380</v>
@@ -12806,7 +12800,7 @@
         <v>858</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
       <c r="C450" s="3">
         <v>311880</v>
@@ -12817,7 +12811,7 @@
         <v>858</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
       <c r="C451" s="3">
         <v>311970</v>
@@ -12828,7 +12822,7 @@
         <v>858</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
       <c r="C452" s="3">
         <v>312083</v>
@@ -12839,7 +12833,7 @@
         <v>858</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
       <c r="C453" s="3">
         <v>312125</v>
@@ -12850,7 +12844,7 @@
         <v>858</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
       <c r="C454" s="3">
         <v>312247</v>
@@ -12861,7 +12855,7 @@
         <v>858</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="C455" s="3">
         <v>312250</v>
@@ -12872,7 +12866,7 @@
         <v>858</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>2432</v>
+        <v>2430</v>
       </c>
       <c r="C456" s="3">
         <v>312310</v>
@@ -12883,7 +12877,7 @@
         <v>858</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
       <c r="C457" s="3">
         <v>312660</v>
@@ -12894,7 +12888,7 @@
         <v>858</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
       <c r="C458" s="3">
         <v>312675</v>
@@ -12905,7 +12899,7 @@
         <v>858</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
       <c r="C459" s="3">
         <v>312750</v>
@@ -12916,7 +12910,7 @@
         <v>858</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
       <c r="C460" s="3">
         <v>312760</v>
@@ -12927,7 +12921,7 @@
         <v>858</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
       <c r="C461" s="3">
         <v>312770</v>
@@ -12938,7 +12932,7 @@
         <v>858</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
       <c r="C462" s="3">
         <v>313200</v>
@@ -12949,7 +12943,7 @@
         <v>858</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
       <c r="C463" s="3">
         <v>313240</v>
@@ -12960,7 +12954,7 @@
         <v>858</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
       <c r="C464" s="3">
         <v>313250</v>
@@ -12971,7 +12965,7 @@
         <v>858</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
       <c r="C465" s="3">
         <v>313330</v>
@@ -12982,7 +12976,7 @@
         <v>858</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
       <c r="C466" s="3">
         <v>313400</v>
@@ -12993,7 +12987,7 @@
         <v>858</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="C467" s="3">
         <v>313480</v>
@@ -13004,7 +12998,7 @@
         <v>858</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="C468" s="3">
         <v>313505</v>
@@ -13015,7 +13009,7 @@
         <v>858</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
       <c r="C469" s="3">
         <v>313545</v>
@@ -13026,7 +13020,7 @@
         <v>858</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
       <c r="C470" s="3">
         <v>313890</v>
@@ -13037,7 +13031,7 @@
         <v>858</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
       <c r="C471" s="3">
         <v>313925</v>
@@ -13048,7 +13042,7 @@
         <v>858</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
       <c r="C472" s="3">
         <v>313950</v>
@@ -13059,7 +13053,7 @@
         <v>858</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
       <c r="C473" s="3">
         <v>314310</v>
@@ -13070,7 +13064,7 @@
         <v>858</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
       <c r="C474" s="3">
         <v>314370</v>
@@ -13081,7 +13075,7 @@
         <v>858</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
       <c r="C475" s="3">
         <v>314530</v>
@@ -13092,7 +13086,7 @@
         <v>858</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
       <c r="C476" s="3">
         <v>314580</v>
@@ -13103,7 +13097,7 @@
         <v>858</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
       <c r="C477" s="3">
         <v>314660</v>
@@ -13114,7 +13108,7 @@
         <v>858</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
       <c r="C478" s="3">
         <v>314870</v>
@@ -13125,7 +13119,7 @@
         <v>858</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
       <c r="C479" s="3">
         <v>314915</v>
@@ -13136,7 +13130,7 @@
         <v>858</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="C480" s="3">
         <v>314995</v>
@@ -13147,7 +13141,7 @@
         <v>858</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
       <c r="C481" s="3">
         <v>315140</v>
@@ -13158,7 +13152,7 @@
         <v>858</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="C482" s="3">
         <v>315190</v>
@@ -13169,7 +13163,7 @@
         <v>858</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
       <c r="C483" s="3">
         <v>315220</v>
@@ -13180,7 +13174,7 @@
         <v>858</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
       <c r="C484" s="3">
         <v>315290</v>
@@ -13191,7 +13185,7 @@
         <v>858</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
       <c r="C485" s="3">
         <v>315380</v>
@@ -13202,7 +13196,7 @@
         <v>858</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
       <c r="C486" s="3">
         <v>315430</v>
@@ -13213,7 +13207,7 @@
         <v>858</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
       <c r="C487" s="3">
         <v>315440</v>
@@ -13224,7 +13218,7 @@
         <v>858</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
       <c r="C488" s="3">
         <v>315760</v>
@@ -13235,7 +13229,7 @@
         <v>858</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="C489" s="3">
         <v>315900</v>
@@ -13246,7 +13240,7 @@
         <v>858</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
       <c r="C490" s="3">
         <v>316020</v>
@@ -13257,7 +13251,7 @@
         <v>858</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
       <c r="C491" s="3">
         <v>316095</v>
@@ -13268,7 +13262,7 @@
         <v>858</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
       <c r="C492" s="3">
         <v>316225</v>
@@ -13279,7 +13273,7 @@
         <v>858</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>2469</v>
+        <v>2467</v>
       </c>
       <c r="C493" s="3">
         <v>316260</v>
@@ -13290,7 +13284,7 @@
         <v>858</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>2470</v>
+        <v>2468</v>
       </c>
       <c r="C494" s="3">
         <v>316620</v>
@@ -13301,7 +13295,7 @@
         <v>858</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>2471</v>
+        <v>2469</v>
       </c>
       <c r="C495" s="3">
         <v>316800</v>
@@ -13312,7 +13306,7 @@
         <v>858</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
       <c r="C496" s="3">
         <v>316860</v>
@@ -13323,7 +13317,7 @@
         <v>858</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
       <c r="C497" s="3">
         <v>316880</v>
@@ -13334,7 +13328,7 @@
         <v>858</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
       <c r="C498" s="3">
         <v>317103</v>
@@ -13345,7 +13339,7 @@
         <v>858</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
       <c r="C499" s="3">
         <v>317107</v>
@@ -16084,10 +16078,10 @@
         <v>1031</v>
       </c>
       <c r="B748" s="5" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
       <c r="C748" s="5" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.2">
@@ -16095,10 +16089,10 @@
         <v>1031</v>
       </c>
       <c r="B749" s="5" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
       <c r="C749" s="5" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.2">
@@ -16557,10 +16551,10 @@
         <v>1359</v>
       </c>
       <c r="B791" s="5" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="C791" s="5" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.2">
@@ -17987,10 +17981,10 @@
         <v>1602</v>
       </c>
       <c r="B921" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C921" s="5" t="s">
         <v>1701</v>
-      </c>
-      <c r="C921" s="5" t="s">
-        <v>1702</v>
       </c>
     </row>
     <row r="922" spans="1:3" x14ac:dyDescent="0.2">
@@ -17998,7 +17992,7 @@
         <v>1602</v>
       </c>
       <c r="B922" s="5" t="s">
-        <v>386</v>
+        <v>1702</v>
       </c>
       <c r="C922" s="5" t="s">
         <v>1703</v>
@@ -18262,10 +18256,10 @@
         <v>1602</v>
       </c>
       <c r="B946" s="5" t="s">
-        <v>1750</v>
+        <v>2392</v>
       </c>
       <c r="C946" s="5" t="s">
-        <v>1751</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="947" spans="1:3" x14ac:dyDescent="0.2">
@@ -18281,18 +18275,18 @@
     </row>
     <row r="948" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A948" s="4" t="s">
-        <v>1602</v>
+        <v>1750</v>
       </c>
       <c r="B948" s="5" t="s">
-        <v>2396</v>
+        <v>1751</v>
       </c>
       <c r="C948" s="5" t="s">
-        <v>2397</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="949" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A949" s="4" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B949" s="5" t="s">
         <v>1753</v>
@@ -18303,7 +18297,7 @@
     </row>
     <row r="950" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A950" s="4" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B950" s="5" t="s">
         <v>1755</v>
@@ -18314,7 +18308,7 @@
     </row>
     <row r="951" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A951" s="4" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B951" s="5" t="s">
         <v>1757</v>
@@ -18325,7 +18319,7 @@
     </row>
     <row r="952" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A952" s="4" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B952" s="5" t="s">
         <v>1759</v>
@@ -18336,7 +18330,7 @@
     </row>
     <row r="953" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A953" s="4" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B953" s="5" t="s">
         <v>1761</v>
@@ -18347,7 +18341,7 @@
     </row>
     <row r="954" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A954" s="4" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B954" s="5" t="s">
         <v>1763</v>
@@ -18358,7 +18352,7 @@
     </row>
     <row r="955" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A955" s="4" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B955" s="5" t="s">
         <v>1765</v>
@@ -18369,7 +18363,7 @@
     </row>
     <row r="956" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A956" s="4" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B956" s="5" t="s">
         <v>1767</v>
@@ -18380,7 +18374,7 @@
     </row>
     <row r="957" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A957" s="4" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B957" s="5" t="s">
         <v>1769</v>
@@ -18391,7 +18385,7 @@
     </row>
     <row r="958" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A958" s="4" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B958" s="5" t="s">
         <v>1771</v>
@@ -18402,7 +18396,7 @@
     </row>
     <row r="959" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A959" s="4" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B959" s="5" t="s">
         <v>1773</v>
@@ -18413,7 +18407,7 @@
     </row>
     <row r="960" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A960" s="4" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B960" s="5" t="s">
         <v>1775</v>
@@ -18424,7 +18418,7 @@
     </row>
     <row r="961" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A961" s="4" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B961" s="5" t="s">
         <v>1777</v>
@@ -18435,7 +18429,7 @@
     </row>
     <row r="962" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A962" s="4" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B962" s="5" t="s">
         <v>1779</v>
@@ -18446,7 +18440,7 @@
     </row>
     <row r="963" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A963" s="4" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B963" s="5" t="s">
         <v>1781</v>
@@ -18457,7 +18451,7 @@
     </row>
     <row r="964" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A964" s="4" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B964" s="5" t="s">
         <v>1783</v>
@@ -18468,7 +18462,7 @@
     </row>
     <row r="965" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A965" s="4" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B965" s="5" t="s">
         <v>1785</v>
@@ -18479,7 +18473,7 @@
     </row>
     <row r="966" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A966" s="4" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B966" s="5" t="s">
         <v>1787</v>
@@ -18490,7 +18484,7 @@
     </row>
     <row r="967" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A967" s="4" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B967" s="5" t="s">
         <v>1789</v>
@@ -18501,7 +18495,7 @@
     </row>
     <row r="968" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A968" s="4" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B968" s="5" t="s">
         <v>1791</v>
@@ -18512,7 +18506,7 @@
     </row>
     <row r="969" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A969" s="4" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B969" s="5" t="s">
         <v>1793</v>
@@ -18523,7 +18517,7 @@
     </row>
     <row r="970" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A970" s="4" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B970" s="5" t="s">
         <v>1795</v>
@@ -18534,7 +18528,7 @@
     </row>
     <row r="971" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A971" s="4" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B971" s="5" t="s">
         <v>1797</v>
@@ -18545,7 +18539,7 @@
     </row>
     <row r="972" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A972" s="4" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B972" s="5" t="s">
         <v>1799</v>
@@ -18556,7 +18550,7 @@
     </row>
     <row r="973" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A973" s="4" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B973" s="5" t="s">
         <v>1801</v>
@@ -18567,29 +18561,29 @@
     </row>
     <row r="974" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A974" s="4" t="s">
-        <v>1752</v>
+        <v>1803</v>
       </c>
       <c r="B974" s="5" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="C974" s="5" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="975" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A975" s="4" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="B975" s="5" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="C975" s="5" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="976" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A976" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B976" s="5" t="s">
         <v>1809</v>
@@ -18600,7 +18594,7 @@
     </row>
     <row r="977" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A977" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B977" s="5" t="s">
         <v>1811</v>
@@ -18611,7 +18605,7 @@
     </row>
     <row r="978" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A978" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B978" s="5" t="s">
         <v>1813</v>
@@ -18622,7 +18616,7 @@
     </row>
     <row r="979" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A979" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B979" s="5" t="s">
         <v>1815</v>
@@ -18633,7 +18627,7 @@
     </row>
     <row r="980" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A980" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B980" s="5" t="s">
         <v>1817</v>
@@ -18644,7 +18638,7 @@
     </row>
     <row r="981" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A981" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B981" s="5" t="s">
         <v>1819</v>
@@ -18655,7 +18649,7 @@
     </row>
     <row r="982" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A982" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B982" s="5" t="s">
         <v>1821</v>
@@ -18666,7 +18660,7 @@
     </row>
     <row r="983" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A983" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B983" s="5" t="s">
         <v>1823</v>
@@ -18677,21 +18671,21 @@
     </row>
     <row r="984" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A984" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B984" s="5" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C984" s="5" t="s">
         <v>1825</v>
-      </c>
-      <c r="C984" s="5" t="s">
-        <v>1826</v>
       </c>
     </row>
     <row r="985" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A985" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B985" s="5" t="s">
-        <v>1615</v>
+        <v>1826</v>
       </c>
       <c r="C985" s="5" t="s">
         <v>1827</v>
@@ -18699,7 +18693,7 @@
     </row>
     <row r="986" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A986" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B986" s="5" t="s">
         <v>1828</v>
@@ -18710,7 +18704,7 @@
     </row>
     <row r="987" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A987" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B987" s="5" t="s">
         <v>1830</v>
@@ -18721,7 +18715,7 @@
     </row>
     <row r="988" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A988" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B988" s="5" t="s">
         <v>1832</v>
@@ -18732,7 +18726,7 @@
     </row>
     <row r="989" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A989" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B989" s="5" t="s">
         <v>1834</v>
@@ -18743,7 +18737,7 @@
     </row>
     <row r="990" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A990" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B990" s="5" t="s">
         <v>1836</v>
@@ -18754,7 +18748,7 @@
     </row>
     <row r="991" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A991" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B991" s="5" t="s">
         <v>1838</v>
@@ -18765,7 +18759,7 @@
     </row>
     <row r="992" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A992" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B992" s="5" t="s">
         <v>1840</v>
@@ -18776,7 +18770,7 @@
     </row>
     <row r="993" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A993" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B993" s="5" t="s">
         <v>1842</v>
@@ -18787,7 +18781,7 @@
     </row>
     <row r="994" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A994" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B994" s="5" t="s">
         <v>1844</v>
@@ -18798,7 +18792,7 @@
     </row>
     <row r="995" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A995" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B995" s="5" t="s">
         <v>1846</v>
@@ -18809,7 +18803,7 @@
     </row>
     <row r="996" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A996" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B996" s="5" t="s">
         <v>1848</v>
@@ -18820,7 +18814,7 @@
     </row>
     <row r="997" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A997" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B997" s="5" t="s">
         <v>1850</v>
@@ -18831,7 +18825,7 @@
     </row>
     <row r="998" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A998" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B998" s="5" t="s">
         <v>1852</v>
@@ -18842,7 +18836,7 @@
     </row>
     <row r="999" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A999" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B999" s="5" t="s">
         <v>1854</v>
@@ -18853,7 +18847,7 @@
     </row>
     <row r="1000" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1000" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1000" s="5" t="s">
         <v>1856</v>
@@ -18864,7 +18858,7 @@
     </row>
     <row r="1001" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1001" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1001" s="5" t="s">
         <v>1858</v>
@@ -18875,7 +18869,7 @@
     </row>
     <row r="1002" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1002" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1002" s="5" t="s">
         <v>1860</v>
@@ -18886,7 +18880,7 @@
     </row>
     <row r="1003" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1003" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1003" s="5" t="s">
         <v>1862</v>
@@ -18897,7 +18891,7 @@
     </row>
     <row r="1004" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1004" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1004" s="5" t="s">
         <v>1864</v>
@@ -18908,7 +18902,7 @@
     </row>
     <row r="1005" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1005" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1005" s="5" t="s">
         <v>1866</v>
@@ -18919,7 +18913,7 @@
     </row>
     <row r="1006" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1006" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1006" s="5" t="s">
         <v>1868</v>
@@ -18930,7 +18924,7 @@
     </row>
     <row r="1007" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1007" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1007" s="5" t="s">
         <v>1870</v>
@@ -18941,7 +18935,7 @@
     </row>
     <row r="1008" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1008" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1008" s="5" t="s">
         <v>1872</v>
@@ -18952,7 +18946,7 @@
     </row>
     <row r="1009" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1009" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1009" s="5" t="s">
         <v>1874</v>
@@ -18963,7 +18957,7 @@
     </row>
     <row r="1010" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1010" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1010" s="5" t="s">
         <v>1876</v>
@@ -18974,7 +18968,7 @@
     </row>
     <row r="1011" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1011" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1011" s="5" t="s">
         <v>1878</v>
@@ -18985,7 +18979,7 @@
     </row>
     <row r="1012" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1012" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1012" s="5" t="s">
         <v>1880</v>
@@ -18996,7 +18990,7 @@
     </row>
     <row r="1013" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1013" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1013" s="5" t="s">
         <v>1882</v>
@@ -19007,7 +19001,7 @@
     </row>
     <row r="1014" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1014" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1014" s="5" t="s">
         <v>1884</v>
@@ -19018,7 +19012,7 @@
     </row>
     <row r="1015" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1015" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1015" s="5" t="s">
         <v>1886</v>
@@ -19029,21 +19023,21 @@
     </row>
     <row r="1016" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1016" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1016" s="5" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C1016" s="5" t="s">
         <v>1888</v>
-      </c>
-      <c r="C1016" s="5" t="s">
-        <v>1889</v>
       </c>
     </row>
     <row r="1017" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1017" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1017" s="5" t="s">
-        <v>1231</v>
+        <v>1889</v>
       </c>
       <c r="C1017" s="5" t="s">
         <v>1890</v>
@@ -19051,7 +19045,7 @@
     </row>
     <row r="1018" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1018" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1018" s="5" t="s">
         <v>1891</v>
@@ -19062,7 +19056,7 @@
     </row>
     <row r="1019" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1019" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1019" s="5" t="s">
         <v>1893</v>
@@ -19073,7 +19067,7 @@
     </row>
     <row r="1020" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1020" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1020" s="5" t="s">
         <v>1895</v>
@@ -19084,7 +19078,7 @@
     </row>
     <row r="1021" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1021" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1021" s="5" t="s">
         <v>1897</v>
@@ -19095,7 +19089,7 @@
     </row>
     <row r="1022" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1022" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1022" s="5" t="s">
         <v>1899</v>
@@ -19106,7 +19100,7 @@
     </row>
     <row r="1023" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1023" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1023" s="5" t="s">
         <v>1901</v>
@@ -19117,7 +19111,7 @@
     </row>
     <row r="1024" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1024" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1024" s="5" t="s">
         <v>1903</v>
@@ -19128,7 +19122,7 @@
     </row>
     <row r="1025" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1025" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1025" s="5" t="s">
         <v>1905</v>
@@ -19139,7 +19133,7 @@
     </row>
     <row r="1026" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1026" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1026" s="5" t="s">
         <v>1907</v>
@@ -19150,21 +19144,21 @@
     </row>
     <row r="1027" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1027" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1027" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="C1027" s="5" t="s">
         <v>1909</v>
-      </c>
-      <c r="C1027" s="5" t="s">
-        <v>1910</v>
       </c>
     </row>
     <row r="1028" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1028" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1028" s="5" t="s">
-        <v>777</v>
+        <v>1910</v>
       </c>
       <c r="C1028" s="5" t="s">
         <v>1911</v>
@@ -19172,7 +19166,7 @@
     </row>
     <row r="1029" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1029" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1029" s="5" t="s">
         <v>1912</v>
@@ -19183,7 +19177,7 @@
     </row>
     <row r="1030" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1030" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1030" s="5" t="s">
         <v>1914</v>
@@ -19194,7 +19188,7 @@
     </row>
     <row r="1031" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1031" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1031" s="5" t="s">
         <v>1916</v>
@@ -19205,7 +19199,7 @@
     </row>
     <row r="1032" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1032" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1032" s="5" t="s">
         <v>1918</v>
@@ -19216,7 +19210,7 @@
     </row>
     <row r="1033" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1033" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1033" s="5" t="s">
         <v>1920</v>
@@ -19227,7 +19221,7 @@
     </row>
     <row r="1034" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1034" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1034" s="5" t="s">
         <v>1922</v>
@@ -19238,7 +19232,7 @@
     </row>
     <row r="1035" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1035" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1035" s="5" t="s">
         <v>1924</v>
@@ -19249,7 +19243,7 @@
     </row>
     <row r="1036" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1036" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1036" s="5" t="s">
         <v>1926</v>
@@ -19260,7 +19254,7 @@
     </row>
     <row r="1037" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1037" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1037" s="5" t="s">
         <v>1928</v>
@@ -19271,7 +19265,7 @@
     </row>
     <row r="1038" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1038" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1038" s="5" t="s">
         <v>1930</v>
@@ -19282,7 +19276,7 @@
     </row>
     <row r="1039" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1039" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1039" s="5" t="s">
         <v>1932</v>
@@ -19293,7 +19287,7 @@
     </row>
     <row r="1040" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1040" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1040" s="5" t="s">
         <v>1934</v>
@@ -19304,7 +19298,7 @@
     </row>
     <row r="1041" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1041" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1041" s="5" t="s">
         <v>1936</v>
@@ -19315,7 +19309,7 @@
     </row>
     <row r="1042" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1042" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1042" s="5" t="s">
         <v>1938</v>
@@ -19326,18 +19320,18 @@
     </row>
     <row r="1043" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1043" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1043" s="5" t="s">
-        <v>1940</v>
+        <v>2396</v>
       </c>
       <c r="C1043" s="5" t="s">
-        <v>1941</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="1044" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1044" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1044" s="5" t="s">
         <v>2398</v>
@@ -19348,7 +19342,7 @@
     </row>
     <row r="1045" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1045" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1045" s="5" t="s">
         <v>2400</v>
@@ -19358,30 +19352,30 @@
       </c>
     </row>
     <row r="1046" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1046" s="4" t="s">
-        <v>1808</v>
-      </c>
-      <c r="B1046" s="5" t="s">
-        <v>2402</v>
-      </c>
-      <c r="C1046" s="5" t="s">
-        <v>2403</v>
+      <c r="A1046" s="2" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B1046" s="3" t="s">
+        <v>2474</v>
+      </c>
+      <c r="C1046" s="3">
+        <v>420820</v>
       </c>
     </row>
     <row r="1047" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1047" s="2" t="s">
-        <v>1808</v>
-      </c>
-      <c r="B1047" s="3" t="s">
-        <v>2476</v>
-      </c>
-      <c r="C1047" s="3">
-        <v>420820</v>
+      <c r="A1047" s="4" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B1047" s="5" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C1047" s="5" t="s">
+        <v>1942</v>
       </c>
     </row>
     <row r="1048" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1048" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1048" s="5" t="s">
         <v>1943</v>
@@ -19392,7 +19386,7 @@
     </row>
     <row r="1049" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1049" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1049" s="5" t="s">
         <v>1945</v>
@@ -19403,7 +19397,7 @@
     </row>
     <row r="1050" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1050" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1050" s="5" t="s">
         <v>1947</v>
@@ -19414,7 +19408,7 @@
     </row>
     <row r="1051" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1051" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1051" s="5" t="s">
         <v>1949</v>
@@ -19425,7 +19419,7 @@
     </row>
     <row r="1052" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1052" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1052" s="5" t="s">
         <v>1951</v>
@@ -19436,7 +19430,7 @@
     </row>
     <row r="1053" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1053" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1053" s="5" t="s">
         <v>1953</v>
@@ -19447,7 +19441,7 @@
     </row>
     <row r="1054" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1054" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1054" s="5" t="s">
         <v>1955</v>
@@ -19458,7 +19452,7 @@
     </row>
     <row r="1055" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1055" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1055" s="5" t="s">
         <v>1957</v>
@@ -19469,7 +19463,7 @@
     </row>
     <row r="1056" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1056" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1056" s="5" t="s">
         <v>1959</v>
@@ -19480,7 +19474,7 @@
     </row>
     <row r="1057" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1057" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1057" s="5" t="s">
         <v>1961</v>
@@ -19491,7 +19485,7 @@
     </row>
     <row r="1058" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1058" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1058" s="5" t="s">
         <v>1963</v>
@@ -19502,7 +19496,7 @@
     </row>
     <row r="1059" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1059" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1059" s="5" t="s">
         <v>1965</v>
@@ -19513,7 +19507,7 @@
     </row>
     <row r="1060" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1060" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1060" s="5" t="s">
         <v>1967</v>
@@ -19524,7 +19518,7 @@
     </row>
     <row r="1061" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1061" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1061" s="5" t="s">
         <v>1969</v>
@@ -19535,7 +19529,7 @@
     </row>
     <row r="1062" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1062" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1062" s="5" t="s">
         <v>1971</v>
@@ -19546,7 +19540,7 @@
     </row>
     <row r="1063" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1063" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1063" s="5" t="s">
         <v>1973</v>
@@ -19557,7 +19551,7 @@
     </row>
     <row r="1064" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1064" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1064" s="5" t="s">
         <v>1975</v>
@@ -19568,7 +19562,7 @@
     </row>
     <row r="1065" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1065" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1065" s="5" t="s">
         <v>1977</v>
@@ -19579,7 +19573,7 @@
     </row>
     <row r="1066" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1066" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1066" s="5" t="s">
         <v>1979</v>
@@ -19590,7 +19584,7 @@
     </row>
     <row r="1067" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1067" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1067" s="5" t="s">
         <v>1981</v>
@@ -19601,7 +19595,7 @@
     </row>
     <row r="1068" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1068" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1068" s="5" t="s">
         <v>1983</v>
@@ -19612,7 +19606,7 @@
     </row>
     <row r="1069" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1069" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1069" s="5" t="s">
         <v>1985</v>
@@ -19623,7 +19617,7 @@
     </row>
     <row r="1070" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1070" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1070" s="5" t="s">
         <v>1987</v>
@@ -19634,7 +19628,7 @@
     </row>
     <row r="1071" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1071" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1071" s="5" t="s">
         <v>1989</v>
@@ -19645,7 +19639,7 @@
     </row>
     <row r="1072" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1072" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1072" s="5" t="s">
         <v>1991</v>
@@ -19656,7 +19650,7 @@
     </row>
     <row r="1073" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1073" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1073" s="5" t="s">
         <v>1993</v>
@@ -19667,7 +19661,7 @@
     </row>
     <row r="1074" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1074" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1074" s="5" t="s">
         <v>1995</v>
@@ -19678,7 +19672,7 @@
     </row>
     <row r="1075" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1075" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1075" s="5" t="s">
         <v>1997</v>
@@ -19689,7 +19683,7 @@
     </row>
     <row r="1076" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1076" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1076" s="5" t="s">
         <v>1999</v>
@@ -19700,7 +19694,7 @@
     </row>
     <row r="1077" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1077" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1077" s="5" t="s">
         <v>2001</v>
@@ -19711,7 +19705,7 @@
     </row>
     <row r="1078" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1078" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1078" s="5" t="s">
         <v>2003</v>
@@ -19722,7 +19716,7 @@
     </row>
     <row r="1079" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1079" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1079" s="5" t="s">
         <v>2005</v>
@@ -19733,7 +19727,7 @@
     </row>
     <row r="1080" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1080" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1080" s="5" t="s">
         <v>2007</v>
@@ -19744,7 +19738,7 @@
     </row>
     <row r="1081" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1081" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1081" s="5" t="s">
         <v>2009</v>
@@ -19755,7 +19749,7 @@
     </row>
     <row r="1082" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1082" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1082" s="5" t="s">
         <v>2011</v>
@@ -19766,7 +19760,7 @@
     </row>
     <row r="1083" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1083" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1083" s="5" t="s">
         <v>2013</v>
@@ -19777,7 +19771,7 @@
     </row>
     <row r="1084" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1084" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1084" s="5" t="s">
         <v>2015</v>
@@ -19788,7 +19782,7 @@
     </row>
     <row r="1085" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1085" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1085" s="5" t="s">
         <v>2017</v>
@@ -19799,7 +19793,7 @@
     </row>
     <row r="1086" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1086" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1086" s="5" t="s">
         <v>2019</v>
@@ -19810,7 +19804,7 @@
     </row>
     <row r="1087" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1087" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1087" s="5" t="s">
         <v>2021</v>
@@ -19821,7 +19815,7 @@
     </row>
     <row r="1088" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1088" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1088" s="5" t="s">
         <v>2023</v>
@@ -19832,7 +19826,7 @@
     </row>
     <row r="1089" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1089" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1089" s="5" t="s">
         <v>2025</v>
@@ -19843,21 +19837,21 @@
     </row>
     <row r="1090" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1090" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1090" s="5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C1090" s="5" t="s">
         <v>2027</v>
-      </c>
-      <c r="C1090" s="5" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="1091" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1091" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1091" s="5" t="s">
-        <v>1134</v>
+        <v>2028</v>
       </c>
       <c r="C1091" s="5" t="s">
         <v>2029</v>
@@ -19865,7 +19859,7 @@
     </row>
     <row r="1092" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1092" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1092" s="5" t="s">
         <v>2030</v>
@@ -19876,7 +19870,7 @@
     </row>
     <row r="1093" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1093" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1093" s="5" t="s">
         <v>2032</v>
@@ -19887,7 +19881,7 @@
     </row>
     <row r="1094" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1094" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1094" s="5" t="s">
         <v>2034</v>
@@ -19898,7 +19892,7 @@
     </row>
     <row r="1095" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1095" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1095" s="5" t="s">
         <v>2036</v>
@@ -19909,7 +19903,7 @@
     </row>
     <row r="1096" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1096" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1096" s="5" t="s">
         <v>2038</v>
@@ -19920,7 +19914,7 @@
     </row>
     <row r="1097" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1097" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1097" s="5" t="s">
         <v>2040</v>
@@ -19931,7 +19925,7 @@
     </row>
     <row r="1098" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1098" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1098" s="5" t="s">
         <v>2042</v>
@@ -19942,7 +19936,7 @@
     </row>
     <row r="1099" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1099" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1099" s="5" t="s">
         <v>2044</v>
@@ -19953,7 +19947,7 @@
     </row>
     <row r="1100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1100" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1100" s="5" t="s">
         <v>2046</v>
@@ -19964,7 +19958,7 @@
     </row>
     <row r="1101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1101" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1101" s="5" t="s">
         <v>2048</v>
@@ -19975,7 +19969,7 @@
     </row>
     <row r="1102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1102" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1102" s="5" t="s">
         <v>2050</v>
@@ -19986,7 +19980,7 @@
     </row>
     <row r="1103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1103" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1103" s="5" t="s">
         <v>2052</v>
@@ -19997,7 +19991,7 @@
     </row>
     <row r="1104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1104" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1104" s="5" t="s">
         <v>2054</v>
@@ -20008,7 +20002,7 @@
     </row>
     <row r="1105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1105" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1105" s="5" t="s">
         <v>2056</v>
@@ -20019,7 +20013,7 @@
     </row>
     <row r="1106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1106" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1106" s="5" t="s">
         <v>2058</v>
@@ -20030,7 +20024,7 @@
     </row>
     <row r="1107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1107" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1107" s="5" t="s">
         <v>2060</v>
@@ -20041,7 +20035,7 @@
     </row>
     <row r="1108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1108" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1108" s="5" t="s">
         <v>2062</v>
@@ -20052,7 +20046,7 @@
     </row>
     <row r="1109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1109" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1109" s="5" t="s">
         <v>2064</v>
@@ -20063,7 +20057,7 @@
     </row>
     <row r="1110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1110" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1110" s="5" t="s">
         <v>2066</v>
@@ -20074,7 +20068,7 @@
     </row>
     <row r="1111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1111" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1111" s="5" t="s">
         <v>2068</v>
@@ -20085,7 +20079,7 @@
     </row>
     <row r="1112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1112" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1112" s="5" t="s">
         <v>2070</v>
@@ -20096,7 +20090,7 @@
     </row>
     <row r="1113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1113" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1113" s="5" t="s">
         <v>2072</v>
@@ -20107,7 +20101,7 @@
     </row>
     <row r="1114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1114" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1114" s="5" t="s">
         <v>2074</v>
@@ -20118,7 +20112,7 @@
     </row>
     <row r="1115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1115" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1115" s="5" t="s">
         <v>2076</v>
@@ -20129,7 +20123,7 @@
     </row>
     <row r="1116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1116" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1116" s="5" t="s">
         <v>2078</v>
@@ -20140,21 +20134,21 @@
     </row>
     <row r="1117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1117" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1117" s="5" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C1117" s="5" t="s">
         <v>2080</v>
-      </c>
-      <c r="C1117" s="5" t="s">
-        <v>2081</v>
       </c>
     </row>
     <row r="1118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1118" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1118" s="5" t="s">
-        <v>1233</v>
+        <v>2081</v>
       </c>
       <c r="C1118" s="5" t="s">
         <v>2082</v>
@@ -20162,7 +20156,7 @@
     </row>
     <row r="1119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1119" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1119" s="5" t="s">
         <v>2083</v>
@@ -20173,7 +20167,7 @@
     </row>
     <row r="1120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1120" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1120" s="5" t="s">
         <v>2085</v>
@@ -20184,7 +20178,7 @@
     </row>
     <row r="1121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1121" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1121" s="5" t="s">
         <v>2087</v>
@@ -20195,7 +20189,7 @@
     </row>
     <row r="1122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1122" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1122" s="5" t="s">
         <v>2089</v>
@@ -20206,7 +20200,7 @@
     </row>
     <row r="1123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1123" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1123" s="5" t="s">
         <v>2091</v>
@@ -20217,7 +20211,7 @@
     </row>
     <row r="1124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1124" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1124" s="5" t="s">
         <v>2093</v>
@@ -20228,7 +20222,7 @@
     </row>
     <row r="1125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1125" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1125" s="5" t="s">
         <v>2095</v>
@@ -20239,7 +20233,7 @@
     </row>
     <row r="1126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1126" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1126" s="5" t="s">
         <v>2097</v>
@@ -20250,7 +20244,7 @@
     </row>
     <row r="1127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1127" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1127" s="5" t="s">
         <v>2099</v>
@@ -20261,7 +20255,7 @@
     </row>
     <row r="1128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1128" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1128" s="5" t="s">
         <v>2101</v>
@@ -20272,7 +20266,7 @@
     </row>
     <row r="1129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1129" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1129" s="5" t="s">
         <v>2103</v>
@@ -20283,7 +20277,7 @@
     </row>
     <row r="1130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1130" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1130" s="5" t="s">
         <v>2105</v>
@@ -20294,7 +20288,7 @@
     </row>
     <row r="1131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1131" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1131" s="5" t="s">
         <v>2107</v>
@@ -20305,7 +20299,7 @@
     </row>
     <row r="1132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1132" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1132" s="5" t="s">
         <v>2109</v>
@@ -20316,7 +20310,7 @@
     </row>
     <row r="1133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1133" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1133" s="5" t="s">
         <v>2111</v>
@@ -20327,7 +20321,7 @@
     </row>
     <row r="1134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1134" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1134" s="5" t="s">
         <v>2113</v>
@@ -20338,7 +20332,7 @@
     </row>
     <row r="1135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1135" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1135" s="5" t="s">
         <v>2115</v>
@@ -20349,7 +20343,7 @@
     </row>
     <row r="1136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1136" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1136" s="5" t="s">
         <v>2117</v>
@@ -20360,7 +20354,7 @@
     </row>
     <row r="1137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1137" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1137" s="5" t="s">
         <v>2119</v>
@@ -20371,7 +20365,7 @@
     </row>
     <row r="1138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1138" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1138" s="5" t="s">
         <v>2121</v>
@@ -20382,7 +20376,7 @@
     </row>
     <row r="1139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1139" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1139" s="5" t="s">
         <v>2123</v>
@@ -20393,7 +20387,7 @@
     </row>
     <row r="1140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1140" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1140" s="5" t="s">
         <v>2125</v>
@@ -20404,7 +20398,7 @@
     </row>
     <row r="1141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1141" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1141" s="5" t="s">
         <v>2127</v>
@@ -20415,7 +20409,7 @@
     </row>
     <row r="1142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1142" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1142" s="5" t="s">
         <v>2129</v>
@@ -20426,7 +20420,7 @@
     </row>
     <row r="1143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1143" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1143" s="5" t="s">
         <v>2131</v>
@@ -20437,7 +20431,7 @@
     </row>
     <row r="1144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1144" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1144" s="5" t="s">
         <v>2133</v>
@@ -20448,7 +20442,7 @@
     </row>
     <row r="1145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1145" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1145" s="5" t="s">
         <v>2135</v>
@@ -20459,7 +20453,7 @@
     </row>
     <row r="1146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1146" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1146" s="5" t="s">
         <v>2137</v>
@@ -20470,7 +20464,7 @@
     </row>
     <row r="1147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1147" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1147" s="5" t="s">
         <v>2139</v>
@@ -20481,7 +20475,7 @@
     </row>
     <row r="1148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1148" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1148" s="5" t="s">
         <v>2141</v>
@@ -20492,7 +20486,7 @@
     </row>
     <row r="1149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1149" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1149" s="5" t="s">
         <v>2143</v>
@@ -20503,7 +20497,7 @@
     </row>
     <row r="1150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1150" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1150" s="5" t="s">
         <v>2145</v>
@@ -20514,7 +20508,7 @@
     </row>
     <row r="1151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1151" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1151" s="5" t="s">
         <v>2147</v>
@@ -20525,7 +20519,7 @@
     </row>
     <row r="1152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1152" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1152" s="5" t="s">
         <v>2149</v>
@@ -20536,7 +20530,7 @@
     </row>
     <row r="1153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1153" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1153" s="5" t="s">
         <v>2151</v>
@@ -20547,7 +20541,7 @@
     </row>
     <row r="1154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1154" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1154" s="5" t="s">
         <v>2153</v>
@@ -20558,7 +20552,7 @@
     </row>
     <row r="1155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1155" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1155" s="5" t="s">
         <v>2155</v>
@@ -20569,7 +20563,7 @@
     </row>
     <row r="1156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1156" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1156" s="5" t="s">
         <v>2157</v>
@@ -20580,7 +20574,7 @@
     </row>
     <row r="1157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1157" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1157" s="5" t="s">
         <v>2159</v>
@@ -20591,7 +20585,7 @@
     </row>
     <row r="1158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1158" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1158" s="5" t="s">
         <v>2161</v>
@@ -20602,7 +20596,7 @@
     </row>
     <row r="1159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1159" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1159" s="5" t="s">
         <v>2163</v>
@@ -20613,21 +20607,21 @@
     </row>
     <row r="1160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1160" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1160" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1160" s="5" t="s">
         <v>2165</v>
-      </c>
-      <c r="C1160" s="5" t="s">
-        <v>2166</v>
       </c>
     </row>
     <row r="1161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1161" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1161" s="5" t="s">
-        <v>438</v>
+        <v>2166</v>
       </c>
       <c r="C1161" s="5" t="s">
         <v>2167</v>
@@ -20635,7 +20629,7 @@
     </row>
     <row r="1162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1162" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1162" s="5" t="s">
         <v>2168</v>
@@ -20646,7 +20640,7 @@
     </row>
     <row r="1163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1163" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1163" s="5" t="s">
         <v>2170</v>
@@ -20657,7 +20651,7 @@
     </row>
     <row r="1164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1164" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1164" s="5" t="s">
         <v>2172</v>
@@ -20668,7 +20662,7 @@
     </row>
     <row r="1165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1165" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1165" s="5" t="s">
         <v>2174</v>
@@ -20679,7 +20673,7 @@
     </row>
     <row r="1166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1166" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1166" s="5" t="s">
         <v>2176</v>
@@ -20690,7 +20684,7 @@
     </row>
     <row r="1167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1167" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1167" s="5" t="s">
         <v>2178</v>
@@ -20701,18 +20695,18 @@
     </row>
     <row r="1168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1168" s="4" t="s">
-        <v>1942</v>
+        <v>2180</v>
       </c>
       <c r="B1168" s="5" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="C1168" s="5" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="1169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1169" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1169" s="5" t="s">
         <v>2183</v>
@@ -20723,7 +20717,7 @@
     </row>
     <row r="1170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1170" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1170" s="5" t="s">
         <v>2185</v>
@@ -20734,7 +20728,7 @@
     </row>
     <row r="1171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1171" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1171" s="5" t="s">
         <v>2187</v>
@@ -20745,7 +20739,7 @@
     </row>
     <row r="1172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1172" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1172" s="5" t="s">
         <v>2189</v>
@@ -20756,7 +20750,7 @@
     </row>
     <row r="1173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1173" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1173" s="5" t="s">
         <v>2191</v>
@@ -20767,7 +20761,7 @@
     </row>
     <row r="1174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1174" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1174" s="5" t="s">
         <v>2193</v>
@@ -20778,7 +20772,7 @@
     </row>
     <row r="1175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1175" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1175" s="5" t="s">
         <v>2195</v>
@@ -20789,7 +20783,7 @@
     </row>
     <row r="1176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1176" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1176" s="5" t="s">
         <v>2197</v>
@@ -20800,7 +20794,7 @@
     </row>
     <row r="1177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1177" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1177" s="5" t="s">
         <v>2199</v>
@@ -20811,7 +20805,7 @@
     </row>
     <row r="1178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1178" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1178" s="5" t="s">
         <v>2201</v>
@@ -20822,7 +20816,7 @@
     </row>
     <row r="1179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1179" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1179" s="5" t="s">
         <v>2203</v>
@@ -20833,7 +20827,7 @@
     </row>
     <row r="1180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1180" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1180" s="5" t="s">
         <v>2205</v>
@@ -20844,7 +20838,7 @@
     </row>
     <row r="1181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1181" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1181" s="5" t="s">
         <v>2207</v>
@@ -20855,7 +20849,7 @@
     </row>
     <row r="1182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1182" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1182" s="5" t="s">
         <v>2209</v>
@@ -20866,7 +20860,7 @@
     </row>
     <row r="1183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1183" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1183" s="5" t="s">
         <v>2211</v>
@@ -20877,7 +20871,7 @@
     </row>
     <row r="1184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1184" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1184" s="5" t="s">
         <v>2213</v>
@@ -20888,7 +20882,7 @@
     </row>
     <row r="1185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1185" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1185" s="5" t="s">
         <v>2215</v>
@@ -20899,7 +20893,7 @@
     </row>
     <row r="1186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1186" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1186" s="5" t="s">
         <v>2217</v>
@@ -20910,7 +20904,7 @@
     </row>
     <row r="1187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1187" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1187" s="5" t="s">
         <v>2219</v>
@@ -20921,7 +20915,7 @@
     </row>
     <row r="1188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1188" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1188" s="5" t="s">
         <v>2221</v>
@@ -20932,7 +20926,7 @@
     </row>
     <row r="1189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1189" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1189" s="5" t="s">
         <v>2223</v>
@@ -20943,7 +20937,7 @@
     </row>
     <row r="1190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1190" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1190" s="5" t="s">
         <v>2225</v>
@@ -20954,7 +20948,7 @@
     </row>
     <row r="1191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1191" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1191" s="5" t="s">
         <v>2227</v>
@@ -20965,7 +20959,7 @@
     </row>
     <row r="1192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1192" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1192" s="5" t="s">
         <v>2229</v>
@@ -20976,7 +20970,7 @@
     </row>
     <row r="1193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1193" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1193" s="5" t="s">
         <v>2231</v>
@@ -20987,7 +20981,7 @@
     </row>
     <row r="1194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1194" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1194" s="5" t="s">
         <v>2233</v>
@@ -20998,7 +20992,7 @@
     </row>
     <row r="1195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1195" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1195" s="5" t="s">
         <v>2235</v>
@@ -21009,7 +21003,7 @@
     </row>
     <row r="1196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1196" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1196" s="5" t="s">
         <v>2237</v>
@@ -21020,7 +21014,7 @@
     </row>
     <row r="1197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1197" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1197" s="5" t="s">
         <v>2239</v>
@@ -21031,7 +21025,7 @@
     </row>
     <row r="1198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1198" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1198" s="5" t="s">
         <v>2241</v>
@@ -21042,7 +21036,7 @@
     </row>
     <row r="1199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1199" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1199" s="5" t="s">
         <v>2243</v>
@@ -21053,7 +21047,7 @@
     </row>
     <row r="1200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1200" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1200" s="5" t="s">
         <v>2245</v>
@@ -21064,7 +21058,7 @@
     </row>
     <row r="1201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1201" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1201" s="5" t="s">
         <v>2247</v>
@@ -21075,7 +21069,7 @@
     </row>
     <row r="1202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1202" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1202" s="5" t="s">
         <v>2249</v>
@@ -21086,7 +21080,7 @@
     </row>
     <row r="1203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1203" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1203" s="5" t="s">
         <v>2251</v>
@@ -21097,7 +21091,7 @@
     </row>
     <row r="1204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1204" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1204" s="5" t="s">
         <v>2253</v>
@@ -21108,7 +21102,7 @@
     </row>
     <row r="1205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1205" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1205" s="5" t="s">
         <v>2255</v>
@@ -21119,7 +21113,7 @@
     </row>
     <row r="1206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1206" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1206" s="5" t="s">
         <v>2257</v>
@@ -21130,7 +21124,7 @@
     </row>
     <row r="1207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1207" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1207" s="5" t="s">
         <v>2259</v>
@@ -21141,7 +21135,7 @@
     </row>
     <row r="1208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1208" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1208" s="5" t="s">
         <v>2261</v>
@@ -21152,21 +21146,21 @@
     </row>
     <row r="1209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1209" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1209" s="5" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C1209" s="5" t="s">
         <v>2263</v>
-      </c>
-      <c r="C1209" s="5" t="s">
-        <v>2264</v>
       </c>
     </row>
     <row r="1210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1210" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1210" s="5" t="s">
-        <v>1909</v>
+        <v>2264</v>
       </c>
       <c r="C1210" s="5" t="s">
         <v>2265</v>
@@ -21174,7 +21168,7 @@
     </row>
     <row r="1211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1211" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1211" s="5" t="s">
         <v>2266</v>
@@ -21185,7 +21179,7 @@
     </row>
     <row r="1212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1212" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1212" s="5" t="s">
         <v>2268</v>
@@ -21196,7 +21190,7 @@
     </row>
     <row r="1213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1213" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1213" s="5" t="s">
         <v>2270</v>
@@ -21207,7 +21201,7 @@
     </row>
     <row r="1214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1214" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1214" s="5" t="s">
         <v>2272</v>
@@ -21218,7 +21212,7 @@
     </row>
     <row r="1215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1215" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1215" s="5" t="s">
         <v>2274</v>
@@ -21229,7 +21223,7 @@
     </row>
     <row r="1216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1216" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1216" s="5" t="s">
         <v>2276</v>
@@ -21240,7 +21234,7 @@
     </row>
     <row r="1217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1217" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1217" s="5" t="s">
         <v>2278</v>
@@ -21251,7 +21245,7 @@
     </row>
     <row r="1218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1218" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1218" s="5" t="s">
         <v>2280</v>
@@ -21262,7 +21256,7 @@
     </row>
     <row r="1219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1219" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1219" s="5" t="s">
         <v>2282</v>
@@ -21273,18 +21267,18 @@
     </row>
     <row r="1220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1220" s="4" t="s">
-        <v>2182</v>
+        <v>2284</v>
       </c>
       <c r="B1220" s="5" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="C1220" s="5" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="1221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1221" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1221" s="5" t="s">
         <v>2287</v>
@@ -21295,7 +21289,7 @@
     </row>
     <row r="1222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1222" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1222" s="5" t="s">
         <v>2289</v>
@@ -21306,7 +21300,7 @@
     </row>
     <row r="1223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1223" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1223" s="5" t="s">
         <v>2291</v>
@@ -21317,7 +21311,7 @@
     </row>
     <row r="1224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1224" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1224" s="5" t="s">
         <v>2293</v>
@@ -21328,7 +21322,7 @@
     </row>
     <row r="1225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1225" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1225" s="5" t="s">
         <v>2295</v>
@@ -21339,7 +21333,7 @@
     </row>
     <row r="1226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1226" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1226" s="5" t="s">
         <v>2297</v>
@@ -21350,7 +21344,7 @@
     </row>
     <row r="1227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1227" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1227" s="5" t="s">
         <v>2299</v>
@@ -21361,7 +21355,7 @@
     </row>
     <row r="1228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1228" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1228" s="5" t="s">
         <v>2301</v>
@@ -21372,7 +21366,7 @@
     </row>
     <row r="1229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1229" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1229" s="5" t="s">
         <v>2303</v>
@@ -21383,7 +21377,7 @@
     </row>
     <row r="1230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1230" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1230" s="5" t="s">
         <v>2305</v>
@@ -21394,7 +21388,7 @@
     </row>
     <row r="1231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1231" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1231" s="5" t="s">
         <v>2307</v>
@@ -21405,7 +21399,7 @@
     </row>
     <row r="1232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1232" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1232" s="5" t="s">
         <v>2309</v>
@@ -21416,7 +21410,7 @@
     </row>
     <row r="1233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1233" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1233" s="5" t="s">
         <v>2311</v>
@@ -21427,7 +21421,7 @@
     </row>
     <row r="1234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1234" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1234" s="5" t="s">
         <v>2313</v>
@@ -21438,7 +21432,7 @@
     </row>
     <row r="1235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1235" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1235" s="5" t="s">
         <v>2315</v>
@@ -21449,7 +21443,7 @@
     </row>
     <row r="1236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1236" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1236" s="5" t="s">
         <v>2317</v>
@@ -21460,7 +21454,7 @@
     </row>
     <row r="1237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1237" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1237" s="5" t="s">
         <v>2319</v>
@@ -21471,7 +21465,7 @@
     </row>
     <row r="1238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1238" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1238" s="5" t="s">
         <v>2321</v>
@@ -21482,7 +21476,7 @@
     </row>
     <row r="1239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1239" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1239" s="5" t="s">
         <v>2323</v>
@@ -21493,21 +21487,21 @@
     </row>
     <row r="1240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1240" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1240" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1240" s="5" t="s">
         <v>2325</v>
-      </c>
-      <c r="C1240" s="5" t="s">
-        <v>2326</v>
       </c>
     </row>
     <row r="1241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1241" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1241" s="5" t="s">
-        <v>296</v>
+        <v>2326</v>
       </c>
       <c r="C1241" s="5" t="s">
         <v>2327</v>
@@ -21515,7 +21509,7 @@
     </row>
     <row r="1242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1242" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1242" s="5" t="s">
         <v>2328</v>
@@ -21526,7 +21520,7 @@
     </row>
     <row r="1243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1243" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1243" s="5" t="s">
         <v>2330</v>
@@ -21537,7 +21531,7 @@
     </row>
     <row r="1244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1244" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1244" s="5" t="s">
         <v>2332</v>
@@ -21548,7 +21542,7 @@
     </row>
     <row r="1245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1245" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1245" s="5" t="s">
         <v>2334</v>
@@ -21559,7 +21553,7 @@
     </row>
     <row r="1246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1246" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1246" s="5" t="s">
         <v>2336</v>
@@ -21570,7 +21564,7 @@
     </row>
     <row r="1247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1247" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1247" s="5" t="s">
         <v>2338</v>
@@ -21581,7 +21575,7 @@
     </row>
     <row r="1248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1248" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1248" s="5" t="s">
         <v>2340</v>
@@ -21592,7 +21586,7 @@
     </row>
     <row r="1249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1249" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1249" s="5" t="s">
         <v>2342</v>
@@ -21603,32 +21597,32 @@
     </row>
     <row r="1250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1250" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1250" s="5" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C1250" s="5" t="s">
         <v>2344</v>
-      </c>
-      <c r="C1250" s="5" t="s">
-        <v>2345</v>
       </c>
     </row>
     <row r="1251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1251" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1251" s="5" t="s">
-        <v>1483</v>
+        <v>370</v>
       </c>
       <c r="C1251" s="5" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1252" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1252" s="5" t="s">
-        <v>370</v>
+        <v>2346</v>
       </c>
       <c r="C1252" s="5" t="s">
         <v>2347</v>
@@ -21636,7 +21630,7 @@
     </row>
     <row r="1253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1253" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1253" s="5" t="s">
         <v>2348</v>
@@ -21647,21 +21641,21 @@
     </row>
     <row r="1254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1254" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1254" s="5" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C1254" s="5" t="s">
         <v>2350</v>
-      </c>
-      <c r="C1254" s="5" t="s">
-        <v>2351</v>
       </c>
     </row>
     <row r="1255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1255" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1255" s="5" t="s">
-        <v>1229</v>
+        <v>2351</v>
       </c>
       <c r="C1255" s="5" t="s">
         <v>2352</v>
@@ -21669,7 +21663,7 @@
     </row>
     <row r="1256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1256" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1256" s="5" t="s">
         <v>2353</v>
@@ -21680,21 +21674,21 @@
     </row>
     <row r="1257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1257" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1257" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="C1257" s="5" t="s">
         <v>2355</v>
-      </c>
-      <c r="C1257" s="5" t="s">
-        <v>2356</v>
       </c>
     </row>
     <row r="1258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1258" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1258" s="5" t="s">
-        <v>901</v>
+        <v>2356</v>
       </c>
       <c r="C1258" s="5" t="s">
         <v>2357</v>
@@ -21702,7 +21696,7 @@
     </row>
     <row r="1259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1259" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1259" s="5" t="s">
         <v>2358</v>
@@ -21713,7 +21707,7 @@
     </row>
     <row r="1260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1260" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1260" s="5" t="s">
         <v>2360</v>
@@ -21724,7 +21718,7 @@
     </row>
     <row r="1261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1261" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1261" s="5" t="s">
         <v>2362</v>
@@ -21735,7 +21729,7 @@
     </row>
     <row r="1262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1262" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1262" s="5" t="s">
         <v>2364</v>
@@ -21746,7 +21740,7 @@
     </row>
     <row r="1263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1263" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1263" s="5" t="s">
         <v>2366</v>
@@ -21757,7 +21751,7 @@
     </row>
     <row r="1264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1264" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1264" s="5" t="s">
         <v>2368</v>
@@ -21768,7 +21762,7 @@
     </row>
     <row r="1265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1265" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1265" s="5" t="s">
         <v>2370</v>
@@ -21779,7 +21773,7 @@
     </row>
     <row r="1266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1266" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1266" s="5" t="s">
         <v>2372</v>
@@ -21790,7 +21784,7 @@
     </row>
     <row r="1267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1267" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1267" s="5" t="s">
         <v>2374</v>
@@ -21801,7 +21795,7 @@
     </row>
     <row r="1268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1268" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1268" s="5" t="s">
         <v>2376</v>
@@ -21812,7 +21806,7 @@
     </row>
     <row r="1269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1269" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1269" s="5" t="s">
         <v>2378</v>
@@ -21823,28 +21817,17 @@
     </row>
     <row r="1270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1270" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1270" s="5" t="s">
-        <v>2380</v>
+        <v>2402</v>
       </c>
       <c r="C1270" s="5" t="s">
-        <v>2381</v>
-      </c>
-    </row>
-    <row r="1271" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1271" s="4" t="s">
-        <v>2286</v>
-      </c>
-      <c r="B1271" s="5" t="s">
-        <v>2404</v>
-      </c>
-      <c r="C1271" s="5" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1271"/>
+  <autoFilter ref="A1:C1270"/>
   <sortState ref="A2:C6881">
     <sortCondition ref="A2"/>
   </sortState>
